--- a/resources/files/prueba_excel.xlsx
+++ b/resources/files/prueba_excel.xlsx
@@ -30,12 +30,18 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D3D3D3"/>
+        <bgColor rgb="00D3D3D3"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -56,10 +62,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -832,7 +841,6 @@
           <t>8043.84</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -910,7 +918,6 @@
           <t>1604.80</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -988,7 +995,6 @@
           <t>756.33</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1001,159 +1007,116 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="4" customWidth="1" min="1" max="1"/>
+    <col width="27" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="18" customWidth="1" min="4" max="4"/>
+    <col width="12" customWidth="1" min="5" max="5"/>
+    <col width="9" customWidth="1" min="6" max="6"/>
+    <col width="10" customWidth="1" min="7" max="7"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>------ Uber, Laredo, TX -------</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Tax ID</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Nombre proveedor</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>TAX ID</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>Invoice</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Archivo</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>------ Solutrans -------</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Cedula Juridica</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Numero Interno</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>Fecha</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>Moneda</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>------- SAMSUNG --------</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Invoice No</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Currency</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>------ C.H. Robinson ------</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>Invoice Number</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>Invoice Date</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>Amount Due</t>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>Total</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Laredo, TX</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>26-2248041</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>91819479</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>04/25/2024</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>s</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
         <is>
           <t>False</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>26-2248041</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>91819479</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>04/25/2024</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>s</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>35003505.txt</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr"/>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>SOLUTRANS LOGISTICS S,A</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>3101510749</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>260669</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>25/01/2024</t>
+        </is>
+      </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>37000205.txt</t>
+          <t>Dolares</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -1161,119 +1124,68 @@
           <t>False</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>3101510749</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>260669</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>25/01/2024</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>Dolares</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr"/>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>SAMSUNG SDS AMERICA, INC.</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>SDSNA24005881929</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>07/08/2024</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
-          <t>37000212.txt</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr">
-        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>SDSNA24005881929</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>False</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr"/>
       <c r="B5" t="inlineStr">
         <is>
+          <t>C.H. Robinson</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>41-1956721</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6193246687</t>
+        </is>
+      </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>January</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
           <t>flat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>37000217.txt</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>6193246687</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>January</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>False</t>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3,783.00</t>
         </is>
       </c>
     </row>
